--- a/src/ExcelsiorSyncfusion.Tests/StyleTests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StyleTests.EmptyList.verified.xlsx
@@ -143,13 +143,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.27734375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.84765625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.84765625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.84765625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.84765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/ExcelsiorSyncfusion.Tests/StyleTests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StyleTests.EmptyList.verified.xlsx
@@ -143,13 +143,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.84765625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.84765625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
